--- a/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
+++ b/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Recibo de Pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F61A2-438F-46EA-9BF0-2F340A96E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69FD0D-B71F-4AC3-894F-DAEF179CD134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="3465" windowWidth="15780" windowHeight="11385" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
+    <workbookView xWindow="13020" yWindow="270" windowWidth="15780" windowHeight="14580" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2024" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +109,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -123,22 +172,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,148 +636,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4688A-DADD-4061-BF4C-23CA8E1E8317}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="13.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="5" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>45536</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="13">
         <v>12357689000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>45536</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="13">
         <v>89012346956</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>955</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>45540</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <v>34567812389</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>345</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20">
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14">
+      <c r="C14" s="21"/>
+      <c r="D14" s="20">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:F3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
+++ b/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Recibo de Pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69FD0D-B71F-4AC3-894F-DAEF179CD134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8036B80-38DA-4651-9B30-8E3FB9842C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="270" windowWidth="15780" windowHeight="14580" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
+    <workbookView xWindow="11595" yWindow="270" windowWidth="17205" windowHeight="14580" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2024" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -130,13 +130,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial Black"/>
@@ -146,6 +139,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -259,33 +259,18 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,32 +280,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,176 +638,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4688A-DADD-4061-BF4C-23CA8E1E8317}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="13.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="22.7109375" style="5"/>
+    <col min="5" max="8" width="20.7109375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="21">
         <v>2024</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>45536</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>12357689000</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>1200</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="9">
+        <f>E5*$D$13</f>
+        <v>132</v>
+      </c>
+      <c r="G5" s="9">
+        <f>E5*$D$14</f>
+        <v>240</v>
+      </c>
+      <c r="H5" s="9">
+        <f>E5-F5</f>
+        <v>1068</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>45536</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>89012346956</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>955</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F9" si="0">E6*$D$13</f>
+        <v>105.05</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6:G9" si="1">E6*$D$14</f>
+        <v>191</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H9" si="2">E6-F6</f>
+        <v>849.95</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>45540</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>34567812389</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>345</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>307.05</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="11">
+        <f>SUM(E5:E7)</f>
+        <v>2500</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:H10" si="3">SUM(F5:F7)</f>
+        <v>275</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>2225</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13">
         <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20">
+      <c r="C14" s="14"/>
+      <c r="D14" s="13">
         <v>0.2</v>
       </c>
     </row>

--- a/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
+++ b/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Recibo de Pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8036B80-38DA-4651-9B30-8E3FB9842C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0908532-807F-4A43-B11D-63DD5E77ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="270" windowWidth="17205" windowHeight="14580" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
+    <workbookView xWindow="11595" yWindow="270" windowWidth="17205" windowHeight="14580" activeTab="1" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2024" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>RELATÓRIO DE PAGAMENTO DE RPA</t>
   </si>
@@ -92,6 +92,29 @@
   </si>
   <si>
     <t>Contribuição da empresa</t>
+  </si>
+  <si>
+    <t>RESUMO ANUAL DO PAGAMENTO DE RPA</t>
+  </si>
+  <si>
+    <t>INSS DESCONTADO</t>
+  </si>
+  <si>
+    <t>INSS DA EMPRESA</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VALOR DOS 
+SERVIÇOS</t>
+  </si>
+  <si>
+    <t>VALOR LÍQUIDO 
+PAGO</t>
   </si>
 </sst>
 </file>
@@ -101,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +172,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -253,11 +283,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -298,6 +405,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -319,8 +429,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4688A-DADD-4061-BF4C-23CA8E1E8317}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -652,13 +804,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
@@ -667,15 +819,15 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="14">
         <v>2024</v>
       </c>
     </row>
@@ -817,11 +969,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="11">
         <f>SUM(E5:E7)</f>
         <v>2500</v>
@@ -840,11 +992,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -856,10 +1008,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="13">
         <v>0.2</v>
       </c>
@@ -878,12 +1030,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29545A30-89D3-4B10-A4C3-6B27D468C7B5}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="23"/>
+    <col min="6" max="6" width="21.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.7109375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35">
+        <f>'RPA-Set2024'!E10</f>
+        <v>2500</v>
+      </c>
+      <c r="D6" s="35">
+        <f>'RPA-Set2024'!F10</f>
+        <v>275</v>
+      </c>
+      <c r="E6" s="35">
+        <f>'RPA-Set2024'!G10</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="35">
+        <f>'RPA-Set2024'!H10</f>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="36">
+        <f>SUM(C5:C7)</f>
+        <v>2500</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" ref="D8:F8" si="0">SUM(D5:D7)</f>
+        <v>275</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="0"/>
+        <v>2225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
+++ b/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Recibo de Pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0908532-807F-4A43-B11D-63DD5E77ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED901E6-8C51-4F86-BD00-E20F6EA9D3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11595" yWindow="270" windowWidth="17205" windowHeight="14580" activeTab="1" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2024" sheetId="1" r:id="rId1"/>
-    <sheet name="RPA-Ano2024" sheetId="2" r:id="rId2"/>
+    <sheet name="RPA-Out2024" sheetId="3" r:id="rId2"/>
+    <sheet name="RPA-Ano2024" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>RELATÓRIO DE PAGAMENTO DE RPA</t>
   </si>
@@ -115,6 +116,18 @@
   <si>
     <t>VALOR LÍQUIDO 
 PAGO</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Galileu Galilei</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Isac Newton</t>
   </si>
 </sst>
 </file>
@@ -364,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +424,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -429,21 +472,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,9 +481,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,15 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,13 +820,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
@@ -819,11 +835,11 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
@@ -969,11 +985,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="11">
         <f>SUM(E5:E7)</f>
         <v>2500</v>
@@ -992,11 +1008,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -1008,10 +1024,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="13">
         <v>0.2</v>
       </c>
@@ -1029,117 +1045,359 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0F82-7AD6-4318-B274-04EDE1F8F6B6}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="22.7109375" style="5"/>
+    <col min="5" max="8" width="20.7109375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="22.7109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>45570</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9876543212</v>
+      </c>
+      <c r="E5" s="9">
+        <v>800</v>
+      </c>
+      <c r="F5" s="9">
+        <f>E5*$D$13</f>
+        <v>88</v>
+      </c>
+      <c r="G5" s="9">
+        <f>E5*$D$14</f>
+        <v>160</v>
+      </c>
+      <c r="H5" s="9">
+        <f>E5-F5</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>45576</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>13579134689</v>
+      </c>
+      <c r="E6" s="9">
+        <v>250</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F9" si="0">E6*$D$13</f>
+        <v>27.5</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6:G9" si="1">E6*$D$14</f>
+        <v>50</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H9" si="2">E6-F6</f>
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>45582</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34215675623</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1345</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>147.94999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>1197.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="11">
+        <f>SUM(E5:E7)</f>
+        <v>2395</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:H10" si="3">SUM(F5:F7)</f>
+        <v>263.45</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>2131.5500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29545A30-89D3-4B10-A4C3-6B27D468C7B5}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="23"/>
-    <col min="6" max="6" width="21.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.7109375" style="23"/>
+    <col min="1" max="1" width="5.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="17"/>
+    <col min="6" max="6" width="21.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.7109375" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="22">
         <v>2024</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="23">
         <f>'RPA-Set2024'!E10</f>
         <v>2500</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="23">
         <f>'RPA-Set2024'!F10</f>
         <v>275</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="23">
         <f>'RPA-Set2024'!G10</f>
         <v>500</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="23">
         <f>'RPA-Set2024'!H10</f>
         <v>2225</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="24">
         <f>SUM(C5:C7)</f>
         <v>2500</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="24">
         <f t="shared" ref="D8:F8" si="0">SUM(D5:D7)</f>
         <v>275</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>2225</v>
       </c>

--- a/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
+++ b/Excel/Recibo de Pagamento Autônomo/Projeto-rpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Recibo de Pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED901E6-8C51-4F86-BD00-E20F6EA9D3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CB1B7-0A2F-4D7B-A5D8-BE9C0DBBBF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="270" windowWidth="17205" windowHeight="14580" activeTab="1" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D391396D-DD58-47CB-9065-17753EB77F63}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2024" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>RELATÓRIO DE PAGAMENTO DE RPA</t>
   </si>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -451,15 +451,15 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +488,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,13 +809,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4688A-DADD-4061-BF4C-23CA8E1E8317}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
     <col min="3" max="4" width="22.7109375" style="5"/>
     <col min="5" max="8" width="20.7109375" style="5" customWidth="1"/>
@@ -848,7 +851,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -985,11 +988,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="11">
         <f>SUM(E5:E7)</f>
         <v>2500</v>
@@ -1008,11 +1011,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
@@ -1024,10 +1027,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="13">
         <v>0.2</v>
       </c>
@@ -1048,13 +1051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0F82-7AD6-4318-B274-04EDE1F8F6B6}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
     <col min="3" max="4" width="22.7109375" style="5"/>
     <col min="5" max="8" width="20.7109375" style="5" customWidth="1"/>
@@ -1090,7 +1093,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1227,11 +1230,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="11">
         <f>SUM(E5:E7)</f>
         <v>2395</v>
@@ -1250,11 +1253,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -1266,10 +1269,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="13">
         <v>0.2</v>
       </c>
@@ -1288,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29545A30-89D3-4B10-A4C3-6B27D468C7B5}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1374,32 +1377,53 @@
     </row>
     <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23">
+        <f>'RPA-Out2024'!E10</f>
+        <v>2395</v>
+      </c>
+      <c r="D7" s="23">
+        <f>'RPA-Out2024'!F10</f>
+        <v>263.45</v>
+      </c>
+      <c r="E7" s="23">
+        <f>'RPA-Out2024'!G10</f>
+        <v>479</v>
+      </c>
+      <c r="F7" s="23">
+        <f>'RPA-Out2024'!H10</f>
+        <v>2131.5500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="24">
-        <f>SUM(C5:C7)</f>
-        <v>2500</v>
-      </c>
-      <c r="D8" s="24">
-        <f t="shared" ref="D8:F8" si="0">SUM(D5:D7)</f>
-        <v>275</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
-        <v>2225</v>
+      <c r="C9" s="24">
+        <f>SUM(C5:C8)</f>
+        <v>4895</v>
+      </c>
+      <c r="D9" s="24">
+        <f>SUM(D5:D7)</f>
+        <v>538.45000000000005</v>
+      </c>
+      <c r="E9" s="24">
+        <f>SUM(E5:E7)</f>
+        <v>979</v>
+      </c>
+      <c r="F9" s="24">
+        <f>SUM(F5:F7)</f>
+        <v>4356.55</v>
       </c>
     </row>
   </sheetData>
